--- a/Publish/Files/Databases.xlsx
+++ b/Publish/Files/Databases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ED3CF7-7204-4DE0-9C52-04C18FAB79A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D9DB7-D0C9-451D-9470-AFF3AF998A7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8E4DB525-7351-4382-83A4-C967B7373505}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Databases" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -39,70 +41,37 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>Owner_Primary</t>
-  </si>
-  <si>
-    <t>Owner_Secondary</t>
-  </si>
-  <si>
     <t>In_Scope</t>
   </si>
   <si>
     <t>Out_of_Scope_Justification</t>
   </si>
   <si>
-    <t>Analysis_Status</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Technical_Contact_Primary</t>
-  </si>
-  <si>
-    <t>Technical_Contact_Secondary</t>
-  </si>
-  <si>
-    <t>Business_Unit</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Business_Criticality</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>SIT</t>
-  </si>
-  <si>
-    <t>PROD</t>
-  </si>
-  <si>
-    <t>DB01</t>
-  </si>
-  <si>
-    <t>DB02</t>
-  </si>
-  <si>
-    <t>DB03</t>
-  </si>
-  <si>
-    <t>DB04</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Server_Name</t>
+  </si>
+  <si>
+    <t>DB_Type</t>
+  </si>
+  <si>
+    <t>DB_Version</t>
+  </si>
+  <si>
+    <t>Technical_Contact</t>
+  </si>
+  <si>
+    <t>DB_Instance</t>
+  </si>
+  <si>
+    <t>DB_Server_Name</t>
+  </si>
+  <si>
+    <t>DB_Size_GB</t>
+  </si>
+  <si>
+    <t>Discovery_Source</t>
   </si>
 </sst>
 </file>
@@ -454,264 +423,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608618DA-58F5-4B9E-A84F-B1BC3061361B}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:M1001"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
